--- a/数据整理/stocks/A股/创业板/300374-中铁装配.xlsx
+++ b/数据整理/stocks/A股/创业板/300374-中铁装配.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>80.53</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.86</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3613</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>420005</t>
+          <t>007202</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘周期策略混合</t>
+          <t>天弘优质成长企业精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>86.63</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007202</t>
+          <t>420005</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘优质成长企业精选混合</t>
+          <t>天弘周期策略混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>80.15</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007202</t>
+          <t>420001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘优质成长企业精选混合</t>
+          <t>天弘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.90</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>72.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4436</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>420001</t>
+          <t>007202</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘精选混合</t>
+          <t>天弘优质成长企业精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>72.54</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2439</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -688,15 +758,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>84.56</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.62</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300374-中铁装配.xlsx
+++ b/数据整理/stocks/A股/创业板/300374-中铁装配.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5031</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4176</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2438</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2347</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300374-中铁装配.xlsx
+++ b/数据整理/stocks/A股/创业板/300374-中铁装配.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1030,4 +1031,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4129</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3393</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2610</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2539</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300374-中铁装配.xlsx
+++ b/数据整理/stocks/A股/创业板/300374-中铁装配.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300374-中铁装配.xlsx
+++ b/数据整理/stocks/A股/创业板/300374-中铁装配.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1286,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,17 +1298,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1317,14 +1338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4674</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.34</v>
       </c>
     </row>
     <row r="3">
@@ -1333,14 +1376,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.42</v>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4294</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1349,14 +1414,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.82</v>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4246</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1365,13 +1452,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2608</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001447</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘惠利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.63</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300374-中铁装配.xlsx
+++ b/数据整理/stocks/A股/创业板/300374-中铁装配.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1571,7 +1572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1582,17 +1583,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1602,14 +1623,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.72</v>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3659</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1618,14 +1661,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3003</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.34</v>
       </c>
     </row>
     <row r="4">
@@ -1634,14 +1699,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.42</v>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2338</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1650,14 +1737,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.82</v>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1666,13 +1775,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.63</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300374-中铁装配.xlsx
+++ b/数据整理/stocks/A股/创业板/300374-中铁装配.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1818,7 +1819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1829,17 +1830,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1849,14 +1870,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.1</v>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3392</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1865,14 +1908,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.72</v>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2890</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1881,14 +1946,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.34</v>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2775</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1897,14 +1984,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.42</v>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1913,14 +2022,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.82</v>
+          <t>015458</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1929,13 +2060,333 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015460</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015459</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.63</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300374-中铁装配.xlsx
+++ b/数据整理/stocks/A股/创业板/300374-中铁装配.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,167 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>420001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>天弘精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>80.53</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3613</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007202</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天弘优质成长企业精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>80.15</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1616</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>420005</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>天弘周期策略混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.63</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1113</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -627,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -678,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>420001</t>
+          <t>007202</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘精选混合</t>
+          <t>天弘优质成长企业精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>72.54</t>
+          <t>82.09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4436</t>
+          <t>0.3392</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -716,32 +694,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007202</t>
+          <t>420001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘优质成长企业精选混合</t>
+          <t>天弘精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.90</t>
+          <t>73.17</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2439</t>
+          <t>0.2890</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -764,26 +742,290 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.56</t>
+          <t>88.60</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1363</t>
+          <t>0.2775</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015458</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015460</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015459</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -818,7 +1060,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -848,32 +1090,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011851</t>
+          <t>420001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘先进制造混合型证券投资基金A</t>
+          <t>天弘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.36</t>
+          <t>7.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>72.95</t>
+          <t>71.80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5031</t>
+          <t>0.3659</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -886,36 +1128,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>420001</t>
+          <t>420005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘精选混合</t>
+          <t>天弘周期策略混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>73.35</t>
+          <t>89.31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4176</t>
+          <t>0.3003</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -934,26 +1176,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.95</t>
+          <t>92.52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2438</t>
+          <t>0.2338</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -962,36 +1204,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>420005</t>
+          <t>011851</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天弘周期策略混合</t>
+          <t>天弘先进制造混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.83</t>
+          <t>91.41</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.09</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2347</t>
+          <t>0.1556</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1010,26 +1252,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>72.95</t>
+          <t>91.41</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0214</t>
+          <t>0.0400</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1038,6 +1280,290 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4674</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4294</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4246</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2608</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001447</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘惠利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1276,290 +1802,6 @@
       </c>
       <c r="H6" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011851</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>天弘先进制造混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.79</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4674</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>420005</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天弘周期策略混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.73</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.64</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4294</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>420001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>天弘精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.16</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>77.31</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4246</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007202</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>天弘优质成长企业精选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.29</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2608</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011852</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>天弘先进制造混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.79</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0787</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001447</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>天弘惠利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>27.11</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0553</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1594,7 +1836,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1624,32 +1866,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>420001</t>
+          <t>011851</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘精选混合</t>
+          <t>天弘先进制造混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.16</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>71.80</t>
+          <t>72.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3659</t>
+          <t>0.5031</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1662,36 +1904,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>420005</t>
+          <t>420001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘周期策略混合</t>
+          <t>天弘精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.31</t>
+          <t>73.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3003</t>
+          <t>0.4176</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1710,26 +1952,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.52</t>
+          <t>90.95</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2338</t>
+          <t>0.2438</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1738,36 +1980,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011851</t>
+          <t>420005</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天弘先进制造混合型证券投资基金A</t>
+          <t>天弘周期策略混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.41</t>
+          <t>86.83</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>7.09</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1556</t>
+          <t>0.2347</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1786,26 +2028,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.41</t>
+          <t>72.95</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0400</t>
+          <t>0.0214</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +2061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1840,7 +2082,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1870,36 +2112,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007202</t>
+          <t>420001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘优质成长企业精选混合</t>
+          <t>天弘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.09</t>
+          <t>72.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3392</t>
+          <t>0.4436</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1908,32 +2150,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>420001</t>
+          <t>007202</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘精选混合</t>
+          <t>天弘优质成长企业精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>73.17</t>
+          <t>88.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2890</t>
+          <t>0.2439</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1956,290 +2198,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.60</t>
+          <t>84.56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2775</t>
+          <t>0.1363</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011851</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>天弘先进制造混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>83.51</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1633</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>015458</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>天弘周期策略混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.60</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0421</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011852</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>天弘先进制造混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>83.51</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0401</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004694</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>天弘策略精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>82.63</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0235</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>015460</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>天弘优质成长企业精选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>82.09</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004748</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>天弘策略精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>82.63</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>015459</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>天弘精选混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>73.17</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2253,144 +2231,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.18</v>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3613</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.1</v>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.63</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300374-中铁装配.xlsx
+++ b/数据整理/stocks/A股/创业板/300374-中铁装配.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>1.18</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.72</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.34</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.82</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.63</v>
       </c>
     </row>
@@ -600,6 +617,364 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3660</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2531</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2520</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015458</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015460</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015459</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1033,7 +1408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1279,7 +1654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1556,252 +1931,6 @@
       </c>
       <c r="H7" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>420001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>天弘精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>69.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4129</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011851</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天弘先进制造混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.05</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3393</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>420005</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>天弘周期策略混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.98</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.79</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2610</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007202</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>天弘优质成长企业精选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.50</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2539</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011852</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>天弘先进制造混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.05</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0702</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1866,36 +1995,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011851</t>
+          <t>420001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘先进制造混合型证券投资基金A</t>
+          <t>天弘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.36</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>72.95</t>
+          <t>69.24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5031</t>
+          <t>0.4129</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1904,36 +2033,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>420001</t>
+          <t>011851</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘精选混合</t>
+          <t>天弘先进制造混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>73.35</t>
+          <t>85.05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4176</t>
+          <t>0.3393</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1942,36 +2071,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007202</t>
+          <t>420005</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘优质成长企业精选混合</t>
+          <t>天弘周期策略混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.95</t>
+          <t>89.98</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>7.79</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2438</t>
+          <t>0.2610</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1980,36 +2109,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>420005</t>
+          <t>007202</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天弘周期策略混合</t>
+          <t>天弘优质成长企业精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.83</t>
+          <t>82.50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.09</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2347</t>
+          <t>0.2539</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2028,22 +2157,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>72.95</t>
+          <t>85.05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0214</t>
+          <t>0.0702</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2056,6 +2185,252 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5031</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4176</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2438</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2347</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2225,7 +2600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300374-中铁装配.xlsx
+++ b/数据整理/stocks/A股/创业板/300374-中铁装配.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>1.07</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>1.18</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.72</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1.34</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.82</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,204 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3613</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -678,31 +865,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘优质成长企业精选混合A</t>
+          <t>天弘优质成长企业精选灵活配置混合型证券投资A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>90.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3660</t>
+          <t>0.3375</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -721,26 +908,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>73.52</t>
+          <t>74.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2531</t>
+          <t>0.3012</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -759,26 +946,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>93.31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2520</t>
+          <t>0.1594</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -797,26 +984,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.41</t>
+          <t>84.28</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1069</t>
+          <t>0.0932</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -835,26 +1022,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>93.31</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0553</t>
+          <t>0.0286</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -878,21 +1065,21 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.41</t>
+          <t>84.28</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0373</t>
+          <t>0.0280</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -906,31 +1093,31 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天弘优质成长企业精选混合C</t>
+          <t>天弘优质成长企业精选灵活配置混合型证券投资C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>90.29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0038</t>
+          <t>0.0074</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -954,19 +1141,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>73.52</t>
+          <t>74.66</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -975,6 +1162,364 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3660</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2531</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2520</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015458</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015460</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015459</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1408,7 +1953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1654,7 +2199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1931,252 +2476,6 @@
       </c>
       <c r="H7" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>420001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>天弘精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>69.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4129</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011851</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天弘先进制造混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.05</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3393</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>420005</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>天弘周期策略混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.98</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.79</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2610</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007202</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>天弘优质成长企业精选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.50</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2539</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011852</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>天弘先进制造混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.05</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0702</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2241,36 +2540,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011851</t>
+          <t>420001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘先进制造混合型证券投资基金A</t>
+          <t>天弘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.36</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>72.95</t>
+          <t>69.24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5031</t>
+          <t>0.4129</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2279,36 +2578,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>420001</t>
+          <t>011851</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘精选混合</t>
+          <t>天弘先进制造混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>73.35</t>
+          <t>85.05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4176</t>
+          <t>0.3393</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2317,36 +2616,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007202</t>
+          <t>420005</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘优质成长企业精选混合</t>
+          <t>天弘周期策略混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.95</t>
+          <t>89.98</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>7.79</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2438</t>
+          <t>0.2610</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2355,36 +2654,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>420005</t>
+          <t>007202</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天弘周期策略混合</t>
+          <t>天弘优质成长企业精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.83</t>
+          <t>82.50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.09</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2347</t>
+          <t>0.2539</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2403,22 +2702,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>72.95</t>
+          <t>85.05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0214</t>
+          <t>0.0702</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2431,6 +2730,252 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5031</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4176</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2438</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2347</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2598,174 +3143,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>420001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>天弘精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>80.53</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3613</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007202</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天弘优质成长企业精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>80.15</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1616</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>420005</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>天弘周期策略混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.63</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1113</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>